--- a/kelapaKabupaten.xlsx
+++ b/kelapaKabupaten.xlsx
@@ -739,7 +739,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -755,23 +755,11 @@
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1312,7 +1300,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14:J33"/>
+      <selection activeCell="A2" sqref="A2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6"/>
@@ -1382,10 +1370,10 @@
       <c r="H2" s="3">
         <v>9678</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="5">
         <v>-3.15</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="5">
         <v>118.8667</v>
       </c>
     </row>
@@ -1414,10 +1402,10 @@
       <c r="H3" s="3">
         <v>27098</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="1">
         <v>-3.4187</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="1">
         <v>119.35</v>
       </c>
     </row>
@@ -1446,10 +1434,10 @@
       <c r="H4" s="3">
         <v>167</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="5" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1478,10 +1466,10 @@
       <c r="H5" s="3">
         <v>4552</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="5">
         <v>-2.6748</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="5">
         <v>118.8885</v>
       </c>
     </row>
@@ -1510,10 +1498,10 @@
       <c r="H6" s="3">
         <v>5951</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="5">
         <v>-1.175216</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>119.362373</v>
       </c>
     </row>
@@ -1521,7 +1509,7 @@
       <c r="A7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="2">
         <v>563.5</v>
       </c>
       <c r="C7" s="3">
@@ -1542,10 +1530,10 @@
       <c r="H7" s="3">
         <v>1646</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="7">
         <v>119.54054</v>
       </c>
     </row>
